--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT130-001 - Akuntansi - Transaksi - IPK - Cek Jurnal Settlement Transaksi Klaim P01.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT130-001 - Akuntansi - Transaksi - IPK - Cek Jurnal Settlement Transaksi Klaim P01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6279CE7-2A99-450A-A6F6-B0A2DDD787C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA2A087-659D-4035-8324-CAF44CCFBEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2805" yWindow="2805" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKAKT130-001" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="40">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -61,65 +61,92 @@
     <t>bni1234</t>
   </si>
   <si>
+    <t>Akuntansi - Transaksi</t>
+  </si>
+  <si>
+    <t>TANGGAL_AWAL</t>
+  </si>
+  <si>
+    <t>TANGGAL_AKHIR</t>
+  </si>
+  <si>
+    <t>Cek Jurnal Settlement Transaksi Klaim P01</t>
+  </si>
+  <si>
+    <t>Jurnal Settlement Terbentuk dengan Benar di-DPLK</t>
+  </si>
+  <si>
+    <t>Keuangan</t>
+  </si>
+  <si>
+    <t>DISK230100090</t>
+  </si>
+  <si>
+    <t>Transaksi</t>
+  </si>
+  <si>
+    <t>Keuangan Kepesertaan</t>
+  </si>
+  <si>
+    <t>Inquiry Pembayaran Kepesertaan</t>
+  </si>
+  <si>
+    <t>DISK230100091</t>
+  </si>
+  <si>
+    <t>DISK230100092</t>
+  </si>
+  <si>
+    <t>DISK230100093</t>
+  </si>
+  <si>
+    <t>DPLKAKT130-001</t>
+  </si>
+  <si>
+    <t>04/08/2022</t>
+  </si>
+  <si>
+    <t>CLM2023010065</t>
+  </si>
+  <si>
+    <t>15/08/2022</t>
+  </si>
+  <si>
+    <t>CLM2023010097</t>
+  </si>
+  <si>
+    <t>23/08/2022</t>
+  </si>
+  <si>
+    <t>SEARCH_KODE_BUKU</t>
+  </si>
+  <si>
+    <t>SEARCH_KETERANGAN</t>
+  </si>
+  <si>
+    <t>BC001</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Penampung Klaim</t>
+  </si>
+  <si>
+    <t>Kelolaan</t>
+  </si>
+  <si>
+    <t>Pinalti</t>
+  </si>
+  <si>
     <t>SEARCH_DOKUMEN_ID</t>
-  </si>
-  <si>
-    <t>Akuntansi - Transaksi</t>
-  </si>
-  <si>
-    <t>TANGGAL_AWAL</t>
-  </si>
-  <si>
-    <t>TANGGAL_AKHIR</t>
-  </si>
-  <si>
-    <t>Cek Jurnal Settlement Transaksi Klaim P01</t>
-  </si>
-  <si>
-    <t>Jurnal Settlement Terbentuk dengan Benar di-DPLK</t>
-  </si>
-  <si>
-    <t>Keuangan</t>
-  </si>
-  <si>
-    <t>DISK230100090</t>
-  </si>
-  <si>
-    <t>Transaksi</t>
-  </si>
-  <si>
-    <t>Keuangan Kepesertaan</t>
-  </si>
-  <si>
-    <t>Inquiry Pembayaran Kepesertaan</t>
-  </si>
-  <si>
-    <t>DISK230100091</t>
-  </si>
-  <si>
-    <t>DISK230100092</t>
-  </si>
-  <si>
-    <t>DISK230100093</t>
-  </si>
-  <si>
-    <t>DPLKAKT130-001</t>
-  </si>
-  <si>
-    <t>04/08/2022</t>
-  </si>
-  <si>
-    <t>CLM2023010065</t>
-  </si>
-  <si>
-    <t>15/08/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +173,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -167,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -189,6 +222,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="F9" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -517,8 +556,8 @@
     <col min="13" max="13" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="23.140625" style="1" bestFit="1" customWidth="1"/>
@@ -565,27 +604,33 @@
         <v>2</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
+      <c r="P1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="60" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F2" s="2" t="str">
         <f>"Username : "&amp;G2&amp;",
@@ -604,25 +649,25 @@
         <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="N2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="5"/>
@@ -632,16 +677,16 @@
     </row>
     <row r="3" spans="1:20" ht="60" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F3" s="2" t="str">
         <f t="shared" ref="F3:F6" si="0">"Username : "&amp;G3&amp;",
@@ -660,39 +705,39 @@
         <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="N3" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="60" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -708,39 +753,39 @@
         <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="M4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="60" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -756,42 +801,39 @@
         <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="M5" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="60" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -807,25 +849,302 @@
         <v>12</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="M6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="O6" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f t="shared" ref="F7" si="1">"Username : "&amp;G7&amp;",
+Password : "&amp;H7&amp;",
+Dokumen ID : "&amp;M7&amp;",
+Tanggal : "&amp;N7</f>
+        <v>Username : 34786,
+Password : bni1234,
+Dokumen ID : CLM2023010097,
+Tanggal : 23/08/2022</v>
+      </c>
+      <c r="G7" s="2">
+        <v>34786</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="N7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" ref="F8:F11" si="2">"Username : "&amp;G8&amp;",
+Password : "&amp;H8&amp;",
+Dokumen ID : "&amp;M8&amp;",
+Tanggal : "&amp;N8</f>
+        <v>Username : 34786,
+Password : bni1234,
+Dokumen ID : CLM2023010097,
+Tanggal : 23/08/2022</v>
+      </c>
+      <c r="G8" s="2">
+        <v>34786</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 34786,
+Password : bni1234,
+Dokumen ID : CLM2023010097,
+Tanggal : 23/08/2022</v>
+      </c>
+      <c r="G9" s="2">
+        <v>34786</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 34786,
+Password : bni1234,
+Dokumen ID : CLM2023010097,
+Tanggal : 23/08/2022</v>
+      </c>
+      <c r="G10" s="2">
+        <v>34786</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>Username : 34786,
+Password : bni1234,
+Dokumen ID : CLM2023010097,
+Tanggal : 23/08/2022</v>
+      </c>
+      <c r="G11" s="2">
+        <v>34786</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT130-001 - Akuntansi - Transaksi - IPK - Cek Jurnal Settlement Transaksi Klaim P01.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT130-001 - Akuntansi - Transaksi - IPK - Cek Jurnal Settlement Transaksi Klaim P01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA2A087-659D-4035-8324-CAF44CCFBEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2862A79A-371B-4A3D-A0FA-A02DE57DF56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2805" yWindow="2805" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKAKT130-001" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="36">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -125,18 +125,6 @@
   </si>
   <si>
     <t>BC001</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Penampung Klaim</t>
-  </si>
-  <si>
-    <t>Kelolaan</t>
-  </si>
-  <si>
-    <t>Pinalti</t>
   </si>
   <si>
     <t>SEARCH_DOKUMEN_ID</t>
@@ -536,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F9" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="H6" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>14</v>
@@ -928,224 +916,53 @@
       </c>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="2" t="str">
-        <f t="shared" ref="F8:F11" si="2">"Username : "&amp;G8&amp;",
-Password : "&amp;H8&amp;",
-Dokumen ID : "&amp;M8&amp;",
-Tanggal : "&amp;N8</f>
-        <v>Username : 34786,
-Password : bni1234,
-Dokumen ID : CLM2023010097,
-Tanggal : 23/08/2022</v>
-      </c>
-      <c r="G8" s="2">
-        <v>34786</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Username : 34786,
-Password : bni1234,
-Dokumen ID : CLM2023010097,
-Tanggal : 23/08/2022</v>
-      </c>
-      <c r="G9" s="2">
-        <v>34786</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Username : 34786,
-Password : bni1234,
-Dokumen ID : CLM2023010097,
-Tanggal : 23/08/2022</v>
-      </c>
-      <c r="G10" s="2">
-        <v>34786</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>Username : 34786,
-Password : bni1234,
-Dokumen ID : CLM2023010097,
-Tanggal : 23/08/2022</v>
-      </c>
-      <c r="G11" s="2">
-        <v>34786</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>38</v>
-      </c>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="J8" s="3"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="J9" s="3"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="J10" s="3"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="J11" s="3"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT130-001 - Akuntansi - Transaksi - IPK - Cek Jurnal Settlement Transaksi Klaim P01.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT130-001 - Akuntansi - Transaksi - IPK - Cek Jurnal Settlement Transaksi Klaim P01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2862A79A-371B-4A3D-A0FA-A02DE57DF56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D32A55-9588-4A79-8D31-BF3E5D5640EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="38">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>SEARCH_DOKUMEN_ID</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>DTOBL202300007</t>
   </si>
 </sst>
 </file>
@@ -524,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H6" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,9 +865,6 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
@@ -916,16 +919,58 @@
       </c>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="J8" s="3"/>
+    <row r="8" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f t="shared" ref="F8" si="2">"Username : "&amp;G8&amp;",
+Password : "&amp;H8&amp;",
+Dokumen ID : "&amp;M8&amp;",
+Tanggal : "&amp;N8</f>
+        <v xml:space="preserve">Username : 34786,
+Password : bni1234,
+Dokumen ID : DTOBL202300007,
+Tanggal : </v>
+      </c>
+      <c r="G8" s="2">
+        <v>34786</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
-      <c r="P8" s="5"/>
+      <c r="P8" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT130-001 - Akuntansi - Transaksi - IPK - Cek Jurnal Settlement Transaksi Klaim P01.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKAKT130-001 - Akuntansi - Transaksi - IPK - Cek Jurnal Settlement Transaksi Klaim P01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DPLK 2\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D32A55-9588-4A79-8D31-BF3E5D5640EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0416D693-176E-4204-9AD6-E0080A6F0839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="37">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -130,10 +130,7 @@
     <t>SEARCH_DOKUMEN_ID</t>
   </si>
   <si>
-    <t>run</t>
-  </si>
-  <si>
-    <t>DTOBL202300007</t>
+    <t>16/09/2022</t>
   </si>
 </sst>
 </file>
@@ -530,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="J5" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,7 +918,7 @@
     </row>
     <row r="8" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>26</v>
@@ -940,10 +937,10 @@
 Password : "&amp;H8&amp;",
 Dokumen ID : "&amp;M8&amp;",
 Tanggal : "&amp;N8</f>
-        <v xml:space="preserve">Username : 34786,
+        <v>Username : 34786,
 Password : bni1234,
-Dokumen ID : DTOBL202300007,
-Tanggal : </v>
+Dokumen ID : CLM2023010097,
+Tanggal : 04/08/2022</v>
       </c>
       <c r="G8" s="2">
         <v>34786</v>
@@ -964,10 +961,14 @@
         <v>22</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="P8" s="5" t="s">
         <v>34</v>
       </c>
